--- a/tbs_template/template_neraca_lajur.xlsx
+++ b/tbs_template/template_neraca_lajur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t xml:space="preserve">Neraca Lajur</t>
   </si>
@@ -100,7 +100,31 @@
     <t xml:space="preserve">Rugi/Laba</t>
   </si>
   <si>
+    <t xml:space="preserve">[p.debet3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p.kredit3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p.debet4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p.kredit4]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Neraca dan Rugi/Laba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p.debet5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p.kredit5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p.debet6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p.kredit6]</t>
   </si>
 </sst>
 </file>
@@ -400,7 +424,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,9 +433,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9.13"/>
   </cols>
   <sheetData>
@@ -617,38 +641,38 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
